--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861865.564322119</v>
+        <v>1859469.908316937</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>26.23425130038929</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>104.4687337216847</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.15826128763494</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>108.4939528379394</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>332.8386057019119</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>22.01879323683791</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0.5637096912206198</v>
       </c>
       <c r="W7" t="n">
-        <v>20.36483836000741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.4278745446288</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>16.07433011926424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>30.33732597912787</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226086</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572453902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>22.10695458833785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042008</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>260.5104015783738</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503982</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>75.9678879306182</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105686</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.919210936293</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1124.187406720095</v>
+        <v>1155.874725683703</v>
       </c>
       <c r="C2" t="n">
-        <v>755.2248897796835</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="D2" t="n">
-        <v>396.959191172933</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="E2" t="n">
-        <v>396.959191172933</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="F2" t="n">
-        <v>390.0136904237295</v>
+        <v>779.9667079940879</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859626</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4328,25 +4328,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>644.3837423617508</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>882.0065235799409</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1178.077090137542</v>
+        <v>1224.788511629516</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.552196373125</v>
+        <v>1530.263617865101</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689757</v>
+        <v>1968.86025644306</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068627</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397902</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.787246784217</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>1510.787246784217</v>
+        <v>1546.014057659515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1510.787246784217</v>
+        <v>1155.874725683703</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>379.7325389256059</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>589.3234121784369</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928761</v>
+        <v>1230.346621798331</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1515.680492231664</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9774911502419</v>
+        <v>330.3258896021806</v>
       </c>
       <c r="C4" t="n">
-        <v>665.041308222335</v>
+        <v>161.3897066742737</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>161.3897066742737</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>511.9743544324203</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361118</v>
+        <v>511.9743544324203</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.2127584631</v>
+        <v>511.9743544324203</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.4201793195701</v>
+        <v>511.9743544324203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2056.974540206873</v>
+        <v>775.9024083749734</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.012023266461</v>
+        <v>775.9024083749734</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.574380270995</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.574380270995</v>
+        <v>1552.641580414907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2443.574380270995</v>
+        <v>1162.502248439095</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>1067.800081832728</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M6" t="n">
-        <v>1434.105971325053</v>
+        <v>1130.035448032194</v>
       </c>
       <c r="N6" t="n">
-        <v>1824.515532650795</v>
+        <v>1520.445009357936</v>
       </c>
       <c r="O6" t="n">
-        <v>2159.444213366326</v>
+        <v>1855.373690073468</v>
       </c>
       <c r="P6" t="n">
-        <v>2408.920941231345</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.226620708352</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="C7" t="n">
-        <v>663.226620708352</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4723,25 +4723,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4756,19 +4756,19 @@
         <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>938.4816527122262</v>
+        <v>938.4816527122266</v>
       </c>
       <c r="V7" t="n">
-        <v>683.7971645063393</v>
+        <v>937.9122489837209</v>
       </c>
       <c r="W7" t="n">
-        <v>663.226620708352</v>
+        <v>648.4950789467603</v>
       </c>
       <c r="X7" t="n">
-        <v>663.226620708352</v>
+        <v>420.5055280487429</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.226620708352</v>
+        <v>199.7129489052128</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1813.253594101053</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="C8" t="n">
-        <v>1444.291077160641</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="D8" t="n">
-        <v>1086.025378553891</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="E8" t="n">
-        <v>700.2371259556462</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>549.2088643620251</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>133.5270225621571</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>2589.992766140986</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.853434165174</v>
+        <v>556.1543651112286</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>804.2903793658375</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1445.313588985731</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N9" t="n">
-        <v>1835.723150311474</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>2170.651831027005</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>400.0273374331255</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>231.0911545052186</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>231.0911545052186</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>231.0911545052186</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>581.6758022633652</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172276</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,13 +5516,13 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600091</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>942.5699949746667</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718711</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2370.227843246303</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2150.626378269244</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1861.551151613442</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908938</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,19 +7017,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,7 +7731,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>191.1953109993754</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>165.1317366276003</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>183.024307581188</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.3850817401896</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>166.1321840381055</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.32082591987793</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>207.1027101249432</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530996</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-9.3441349837484e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.0027403343148</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.533687599289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.0775198009063</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.9938324358038</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>26.01259675821717</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844822967</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0583980710264</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584152624</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459491</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345295119</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916269.5761914153</v>
+        <v>916269.576191415</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518675</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518675</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260477</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.456904235</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,28 +26433,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695027</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291557</v>
+        <v>-634610.6549291578</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.9907817387</v>
+        <v>158890.9907817409</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716336</v>
+        <v>331655.3505716338</v>
       </c>
       <c r="E6" t="n">
-        <v>-63474.92331059863</v>
+        <v>-63509.66123603438</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351518</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351518</v>
+        <v>437379.206509716</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351518</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351519</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="J6" t="n">
-        <v>267999.9276091036</v>
+        <v>267965.1896836684</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351521</v>
+        <v>437379.206509716</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351522</v>
+        <v>437379.206509716</v>
       </c>
       <c r="M6" t="n">
-        <v>306529.4875309165</v>
+        <v>306494.7496054809</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097162</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097158</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.206509716</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498447</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,46 +26957,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.821210263296962e-13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>428.269109691829</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>386.0534873946548</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>265.2623669567843</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6737188943024</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>37.94000980862974</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.84443591877107</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>327.2221754805751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>251.5739336326074</v>
       </c>
       <c r="W7" t="n">
-        <v>266.1581599765836</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.4481711970826</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>284.7119571291955</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>115.0837220438034</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364637</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>354.6246161155308</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>443.0269076545039</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>305.673895732985</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>408.9906691093674</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>536.1381330202526</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.3505121496401</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>507.4178102424329</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>570.7518035997555</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565896</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36841,10 +36841,10 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
